--- a/output/StructureDefinition-cde-cholesterol-inserum-or-plasma-mole-conentration.xlsx
+++ b/output/StructureDefinition-cde-cholesterol-inserum-or-plasma-mole-conentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T10:38:26+01:00</t>
+    <t>2023-03-13T12:04:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1241,7 +1241,7 @@
     <t>Observation.code.coding.system</t>
   </si>
   <si>
-    <t>http://loinc.org</t>
+    <t>https://fhir.loinc.org</t>
   </si>
   <si>
     <t>Observation.code.coding.version</t>
@@ -4310,7 +4310,7 @@
         <v>206</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>207</v>

--- a/output/StructureDefinition-cde-cholesterol-inserum-or-plasma-mole-conentration.xlsx
+++ b/output/StructureDefinition-cde-cholesterol-inserum-or-plasma-mole-conentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T12:04:54+01:00</t>
+    <t>2023-03-14T13:58:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-cholesterol-inserum-or-plasma-mole-conentration.xlsx
+++ b/output/StructureDefinition-cde-cholesterol-inserum-or-plasma-mole-conentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T13:58:26+01:00</t>
+    <t>2023-03-14T20:28:45+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-cholesterol-inserum-or-plasma-mole-conentration.xlsx
+++ b/output/StructureDefinition-cde-cholesterol-inserum-or-plasma-mole-conentration.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/cde-cholesterol-inserum-or-plasma-mole-conentration</t>
+    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cde-cholesterol-inserum-or-plasma-mole-conentration</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T20:28:45+01:00</t>
+    <t>2023-03-15T20:18:50+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/cls-obo-cmo-blood-cholesterol-level</t>
+    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cls-obo-cmo-blood-cholesterol-level</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -1636,7 +1636,7 @@
     <t>umol/L | mmol/L</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/ValueSet/vs-molar-concentration-units</t>
+    <t>http://hl7.org/fhir/de/myig/ValueSet/vs-molar-concentration-units</t>
   </si>
   <si>
     <t>Quantity.code</t>
@@ -2517,7 +2517,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="68.953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="61.26953125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-cde-cholesterol-inserum-or-plasma-mole-conentration.xlsx
+++ b/output/StructureDefinition-cde-cholesterol-inserum-or-plasma-mole-conentration.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cde-cholesterol-inserum-or-plasma-mole-conentration</t>
+    <t>http://fhir.org/de/StructureDefinition/cde-cholesterol-inserum-or-plasma-mole-conentration</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T20:18:50+01:00</t>
+    <t>2023-03-16T15:14:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 International - [Some] Work Group</t>
+    <t>HL7 International - CDE Katalog Arbeitsgruppe</t>
   </si>
   <si>
     <t>Contact</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cls-obo-cmo-blood-cholesterol-level</t>
+    <t>http://fhir.org/de/StructureDefinition/cls-obo-cmo-blood-cholesterol-level</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -1636,7 +1636,7 @@
     <t>umol/L | mmol/L</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/ValueSet/vs-molar-concentration-units</t>
+    <t>http://fhir.org/de/ValueSet/vs-molar-concentration-units</t>
   </si>
   <si>
     <t>Quantity.code</t>
@@ -2517,7 +2517,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.26953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.50390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-cde-cholesterol-inserum-or-plasma-mole-conentration.xlsx
+++ b/output/StructureDefinition-cde-cholesterol-inserum-or-plasma-mole-conentration.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.org/de/StructureDefinition/cde-cholesterol-inserum-or-plasma-mole-conentration</t>
+    <t>http://hl7.org/de/StructureDefinition/cde-cholesterol-inserum-or-plasma-mole-conentration</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T15:14:40+01:00</t>
+    <t>2023-03-16T17:46:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://fhir.org/de/StructureDefinition/cls-obo-cmo-blood-cholesterol-level</t>
+    <t>http://hl7.org/de/StructureDefinition/cls-obo-cmo-blood-cholesterol-level</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -1636,7 +1636,7 @@
     <t>umol/L | mmol/L</t>
   </si>
   <si>
-    <t>http://fhir.org/de/ValueSet/vs-molar-concentration-units</t>
+    <t>http://hl7.org/de/ValueSet/vs-molar-concentration-units</t>
   </si>
   <si>
     <t>Quantity.code</t>
@@ -2517,7 +2517,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="52.50390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.1796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-cde-cholesterol-inserum-or-plasma-mole-conentration.xlsx
+++ b/output/StructureDefinition-cde-cholesterol-inserum-or-plasma-mole-conentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T11:27:05+01:00</t>
+    <t>2023-03-23T14:41:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-cholesterol-inserum-or-plasma-mole-conentration.xlsx
+++ b/output/StructureDefinition-cde-cholesterol-inserum-or-plasma-mole-conentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T14:41:29+01:00</t>
+    <t>2023-03-27T14:34:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4948,7 +4948,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>92</v>

--- a/output/StructureDefinition-cde-cholesterol-inserum-or-plasma-mole-conentration.xlsx
+++ b/output/StructureDefinition-cde-cholesterol-inserum-or-plasma-mole-conentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:34:38+02:00</t>
+    <t>2023-03-28T14:13:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -983,7 +983,7 @@
     <t>Observation.code.coding.system</t>
   </si>
   <si>
-    <t>https://fhir.loinc.org</t>
+    <t>https://loinc.org</t>
   </si>
   <si>
     <t>Observation.code.coding.version</t>

--- a/output/StructureDefinition-cde-cholesterol-inserum-or-plasma-mole-conentration.xlsx
+++ b/output/StructureDefinition-cde-cholesterol-inserum-or-plasma-mole-conentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T14:13:32+02:00</t>
+    <t>2023-03-28T16:37:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-cholesterol-inserum-or-plasma-mole-conentration.xlsx
+++ b/output/StructureDefinition-cde-cholesterol-inserum-or-plasma-mole-conentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T16:37:13+02:00</t>
+    <t>2023-03-28T22:15:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-cholesterol-inserum-or-plasma-mole-conentration.xlsx
+++ b/output/StructureDefinition-cde-cholesterol-inserum-or-plasma-mole-conentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T22:15:03+02:00</t>
+    <t>2023-03-28T23:17:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-cholesterol-inserum-or-plasma-mole-conentration.xlsx
+++ b/output/StructureDefinition-cde-cholesterol-inserum-or-plasma-mole-conentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T23:17:42+02:00</t>
+    <t>2023-03-29T13:43:15+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-cholesterol-inserum-or-plasma-mole-conentration.xlsx
+++ b/output/StructureDefinition-cde-cholesterol-inserum-or-plasma-mole-conentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T13:43:15+02:00</t>
+    <t>2023-03-30T02:04:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -983,7 +983,7 @@
     <t>Observation.code.coding.system</t>
   </si>
   <si>
-    <t>https://loinc.org</t>
+    <t>http://loinc.org</t>
   </si>
   <si>
     <t>Observation.code.coding.version</t>

--- a/output/StructureDefinition-cde-cholesterol-inserum-or-plasma-mole-conentration.xlsx
+++ b/output/StructureDefinition-cde-cholesterol-inserum-or-plasma-mole-conentration.xlsx
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T02:04:17+02:00</t>
+    <t>2023-03-30T13:05:19+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-cholesterol-inserum-or-plasma-mole-conentration.xlsx
+++ b/output/StructureDefinition-cde-cholesterol-inserum-or-plasma-mole-conentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T13:05:19+02:00</t>
+    <t>2023-03-30T15:07:01+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -771,7 +771,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/CodeSystem/umls</t>
+    <t>http://www.nlm.nih.gov/research/umls/</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/output/StructureDefinition-cde-cholesterol-inserum-or-plasma-mole-conentration.xlsx
+++ b/output/StructureDefinition-cde-cholesterol-inserum-or-plasma-mole-conentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T15:07:01+02:00</t>
+    <t>2023-03-30T17:28:47+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-cholesterol-inserum-or-plasma-mole-conentration.xlsx
+++ b/output/StructureDefinition-cde-cholesterol-inserum-or-plasma-mole-conentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T17:28:47+02:00</t>
+    <t>2023-03-30T20:16:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -771,7 +771,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://www.nlm.nih.gov/research/umls/</t>
+    <t>http://www.nlm.nih.gov/research/umls</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/output/StructureDefinition-cde-cholesterol-inserum-or-plasma-mole-conentration.xlsx
+++ b/output/StructureDefinition-cde-cholesterol-inserum-or-plasma-mole-conentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T20:16:43+02:00</t>
+    <t>2023-03-31T11:28:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-cholesterol-inserum-or-plasma-mole-conentration.xlsx
+++ b/output/StructureDefinition-cde-cholesterol-inserum-or-plasma-mole-conentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T11:28:30+02:00</t>
+    <t>2023-03-31T15:03:50+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-cholesterol-inserum-or-plasma-mole-conentration.xlsx
+++ b/output/StructureDefinition-cde-cholesterol-inserum-or-plasma-mole-conentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T15:03:50+02:00</t>
+    <t>2023-04-02T11:40:39+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
